--- a/Bug Report Assignment Answers Nuwani Sandamali.xlsx
+++ b/Bug Report Assignment Answers Nuwani Sandamali.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nuwani Hansika\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuwani Hansika\Desktop\nordicbangers manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E25698F-B12F-4E65-802B-496868A20062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF915518-C065-4DE8-8503-FC53555D9D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{407326ED-812A-4586-A060-9B774B84728B}"/>
   </bookViews>
@@ -258,9 +258,6 @@
     <t>Above $50 surprise offer does not apply at checkout</t>
   </si>
   <si>
-    <t>The website displays a promotional banner stating "GET A FREE SURPRISE CANDY.SPEND OVER $50", but after order is placed in the cart (total: 55$ which is greater than 50$) , there is no indication that the promotionall offer has been applied. No free suprise item appear in the cart.</t>
-  </si>
-  <si>
     <t>Pricing page</t>
   </si>
   <si>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>Product cards appear misaligned, reducing readability</t>
+  </si>
+  <si>
+    <t>The website displays a promotional banner stating "GET A FREE SURPRISE CANDY.SPEND OVER $50", but after order is placed in the cart (total: 55$ which is greater than 50$) , there is no indication that the promotional offer has been applied. No free surprise item appear in the cart.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,16 +523,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -845,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFE8FB0-1A26-48F7-816A-BA271313BA93}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,7 +875,6 @@
         <v>10</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -877,7 +884,6 @@
         <v>11</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -887,7 +893,6 @@
         <v>67</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -897,7 +902,6 @@
         <v>69</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
@@ -907,7 +911,6 @@
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -917,26 +920,25 @@
         <v>12</v>
       </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1012,7 +1014,7 @@
       <c r="H12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1143,21 +1145,21 @@
         <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
@@ -1169,25 +1171,25 @@
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>47</v>
@@ -1198,22 +1200,22 @@
         <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>37</v>
@@ -1227,25 +1229,25 @@
         <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="I20" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>39</v>
@@ -1256,25 +1258,25 @@
         <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>39</v>
@@ -1285,22 +1287,22 @@
         <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>37</v>
@@ -1314,25 +1316,25 @@
         <v>26</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>39</v>
@@ -1343,25 +1345,25 @@
         <v>27</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="F24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>39</v>
